--- a/data/scenarioCals.xlsx
+++ b/data/scenarioCals.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewverbyla/BitBucket/pathogenflows/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FC41A5-C4E0-B442-B30F-8325945D4F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4588E973-09EC-FB4C-908A-95F2F858AD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="inputNH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>iso</t>
   </si>
@@ -106,9 +116,6 @@
     <t>isShared_urb</t>
   </si>
   <si>
-    <t>sewerLeak_urb</t>
-  </si>
-  <si>
     <t>emptied_urb</t>
   </si>
   <si>
@@ -308,6 +315,12 @@
   </si>
   <si>
     <t>Rubaga</t>
+  </si>
+  <si>
+    <t>sewageTreated</t>
+  </si>
+  <si>
+    <t>Slide Bar</t>
   </si>
 </sst>
 </file>
@@ -1149,9 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL6"/>
+  <dimension ref="A1:CL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1241,190 +1256,190 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:90">
@@ -1432,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0.49299999999999999</v>
@@ -1513,7 +1528,7 @@
         <v>0.363873646</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD2">
         <v>0.46994457499999998</v>
@@ -1534,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1642,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="BT2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1704,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.49299999999999999</v>
@@ -1785,7 +1800,7 @@
         <v>0.439653607</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD3">
         <v>0.21864877099999999</v>
@@ -1806,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="AJ3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1914,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="BT3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -1976,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0.49299999999999999</v>
@@ -2057,7 +2072,7 @@
         <v>0.42865895900000001</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD4">
         <v>0.248507909</v>
@@ -2078,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2186,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="BT4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -2248,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0.49299999999999999</v>
@@ -2329,7 +2344,7 @@
         <v>0.38988237799999997</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD5">
         <v>0.196882531</v>
@@ -2350,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2458,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="BT5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -2520,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>0.49299999999999999</v>
@@ -2601,7 +2616,7 @@
         <v>0.44167346600000001</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD6">
         <v>0.256076888</v>
@@ -2622,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="AJ6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2730,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="BT6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU6">
         <v>0</v>
@@ -2785,6 +2800,15 @@
       </c>
       <c r="CL6">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90">
+      <c r="AB8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC8">
+        <f>(D2*M2)*AC2+M3*P3*AC3</f>
+        <v>4995.0322896608477</v>
       </c>
     </row>
   </sheetData>
